--- a/System Bus Trade-off.xlsx
+++ b/System Bus Trade-off.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\edesa\Desktop\n-Lotusat\lotusat\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Emirhan\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FF0326F-E675-417E-93BF-B465528F3433}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="23">
   <si>
     <t>I2C</t>
   </si>
@@ -39,18 +38,12 @@
     <t>Fault Management</t>
   </si>
   <si>
-    <t>Power</t>
-  </si>
-  <si>
     <t>Asynchronous</t>
   </si>
   <si>
     <t>Differential</t>
   </si>
   <si>
-    <t>Efficiency</t>
-  </si>
-  <si>
     <t>Bus Ownership</t>
   </si>
   <si>
@@ -58,13 +51,55 @@
   </si>
   <si>
     <t>Total</t>
+  </si>
+  <si>
+    <t>HIGH</t>
+  </si>
+  <si>
+    <t>LOW</t>
+  </si>
+  <si>
+    <t>User Should Make</t>
+  </si>
+  <si>
+    <t>Internal Protection</t>
+  </si>
+  <si>
+    <t>Single</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LOW </t>
+  </si>
+  <si>
+    <t>Power at Idle</t>
+  </si>
+  <si>
+    <t>Power at active</t>
+  </si>
+  <si>
+    <t>A bit lower</t>
+  </si>
+  <si>
+    <t>A bit higher</t>
+  </si>
+  <si>
+    <t>Hardware Reqiurement</t>
+  </si>
+  <si>
+    <t>might be reqiured for extra protection</t>
+  </si>
+  <si>
+    <t>CAN Transceiver required</t>
+  </si>
+  <si>
+    <t>Synchronous</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -72,16 +107,56 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="162"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="162"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -89,17 +164,40 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
+    <cellStyle name="Neutral" xfId="2" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -457,67 +555,133 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A3:I15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:J15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.77734375" customWidth="1"/>
     <col min="3" max="3" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.21875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5546875" customWidth="1"/>
+    <col min="5" max="5" width="13.77734375" customWidth="1"/>
+    <col min="6" max="6" width="12.88671875" customWidth="1"/>
+    <col min="7" max="7" width="11.77734375" customWidth="1"/>
+    <col min="8" max="8" width="32.5546875" customWidth="1"/>
+    <col min="9" max="9" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:9" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B12" s="1" t="s">
+    <row r="3" spans="1:10" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" s="1"/>
+      <c r="B12" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E12" t="s">
+      <c r="G12" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F12" t="s">
+      <c r="H12" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I12" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G12" t="s">
+      <c r="J12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I13" s="1">
+        <v>2</v>
+      </c>
+      <c r="J13" s="1"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I14" s="1">
+        <v>2</v>
+      </c>
+      <c r="J14" s="1"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="H12" t="s">
-        <v>8</v>
-      </c>
-      <c r="I12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>9</v>
-      </c>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/System Bus Trade-off.xlsx
+++ b/System Bus Trade-off.xlsx
@@ -1,30 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Emirhan\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\edesa\Desktop\n-Lotusat\lotusat\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF9CC200-3E4C-498C-857E-13AA6C2FBCCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="26">
   <si>
     <t>I2C</t>
   </si>
@@ -83,9 +93,6 @@
     <t>A bit higher</t>
   </si>
   <si>
-    <t>Hardware Reqiurement</t>
-  </si>
-  <si>
     <t>might be reqiured for extra protection</t>
   </si>
   <si>
@@ -93,12 +100,24 @@
   </si>
   <si>
     <t>Synchronous</t>
+  </si>
+  <si>
+    <t>Hardware Requirement</t>
+  </si>
+  <si>
+    <t>Low Noise Susceptibility</t>
+  </si>
+  <si>
+    <t>Power</t>
+  </si>
+  <si>
+    <t>Space or Automative History</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -185,7 +204,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -194,6 +213,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
@@ -555,11 +575,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:J15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A3:J21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -567,9 +587,9 @@
     <col min="2" max="2" width="19.77734375" customWidth="1"/>
     <col min="3" max="3" width="16.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.5546875" customWidth="1"/>
-    <col min="5" max="5" width="13.77734375" customWidth="1"/>
-    <col min="6" max="6" width="12.88671875" customWidth="1"/>
-    <col min="7" max="7" width="11.77734375" customWidth="1"/>
+    <col min="5" max="5" width="20.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="32.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.44140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="32.5546875" customWidth="1"/>
     <col min="9" max="9" width="14.6640625" customWidth="1"/>
   </cols>
@@ -596,7 +616,7 @@
         <v>5</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="I12" s="3" t="s">
         <v>6</v>
@@ -622,13 +642,13 @@
         <v>17</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I13" s="1">
         <v>2</v>
@@ -658,7 +678,7 @@
         <v>5</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I14" s="1">
         <v>2</v>
@@ -666,9 +686,7 @@
       <c r="J14" s="1"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="5" t="s">
-        <v>7</v>
-      </c>
+      <c r="A15" s="6"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -679,6 +697,116 @@
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
     </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A19" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19" s="1">
+        <v>1</v>
+      </c>
+      <c r="C19" s="1">
+        <v>1</v>
+      </c>
+      <c r="D19" s="1">
+        <v>3</v>
+      </c>
+      <c r="E19" s="1">
+        <v>1</v>
+      </c>
+      <c r="F19" s="1">
+        <v>3</v>
+      </c>
+      <c r="G19" s="1">
+        <v>3</v>
+      </c>
+      <c r="H19" s="1">
+        <f>SUMPRODUCT(B19:G19,B21:G21)</f>
+        <v>34</v>
+      </c>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A20" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B20" s="1">
+        <v>2</v>
+      </c>
+      <c r="C20" s="1">
+        <v>2</v>
+      </c>
+      <c r="D20" s="1">
+        <v>2</v>
+      </c>
+      <c r="E20" s="1">
+        <v>3</v>
+      </c>
+      <c r="F20" s="1">
+        <v>1</v>
+      </c>
+      <c r="G20" s="1">
+        <v>2</v>
+      </c>
+      <c r="H20" s="1">
+        <f>SUMPRODUCT(B20:G20,B21:G21)</f>
+        <v>38</v>
+      </c>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A21" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B21" s="1">
+        <v>4</v>
+      </c>
+      <c r="C21" s="1">
+        <v>3</v>
+      </c>
+      <c r="D21" s="1">
+        <v>3</v>
+      </c>
+      <c r="E21" s="1">
+        <v>3</v>
+      </c>
+      <c r="F21" s="1">
+        <v>1</v>
+      </c>
+      <c r="G21" s="1">
+        <v>4</v>
+      </c>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
